--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702420</v>
+        <v>111702506</v>
       </c>
       <c r="B8" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,49 +1435,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517086.1792710476</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R8" t="n">
-        <v>6574909.900584662</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1547,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702393</v>
+        <v>111702400</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,21 +1555,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1582,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517070.2129045375</v>
+        <v>517073.2951468225</v>
       </c>
       <c r="R9" t="n">
-        <v>6574934.844418272</v>
+        <v>6574931.795150192</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1663,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702506</v>
+        <v>111702393</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1702,14 +1694,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517093.6249861007</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R10" t="n">
-        <v>6574959.965416327</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1779,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702486</v>
+        <v>111702420</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1791,29 +1783,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517080.8398438052</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R11" t="n">
-        <v>6574959.907818918</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702400</v>
+        <v>111702486</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1911,21 +1911,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517073.2951468225</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R12" t="n">
-        <v>6574931.795150192</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702506</v>
+        <v>111702420</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,41 +1435,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517093.6249861007</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R8" t="n">
-        <v>6574959.965416327</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702400</v>
+        <v>111702393</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,21 +1563,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1582,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517073.2951468225</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R9" t="n">
-        <v>6574931.795150192</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702393</v>
+        <v>111702486</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1679,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1698,10 +1706,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517070.2129045375</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R10" t="n">
-        <v>6574934.844418272</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702420</v>
+        <v>111702400</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,37 +1791,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517086.1792710476</v>
+        <v>517073.2951468225</v>
       </c>
       <c r="R11" t="n">
-        <v>6574909.900584662</v>
+        <v>6574931.795150192</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702486</v>
+        <v>111702506</v>
       </c>
       <c r="B12" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1911,21 +1911,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1934,14 +1934,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517080.8398438052</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R12" t="n">
-        <v>6574959.907818918</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702420</v>
+        <v>111702393</v>
       </c>
       <c r="B8" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,37 +1435,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
@@ -1474,10 +1466,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517086.1792710476</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R8" t="n">
-        <v>6574909.900584662</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1547,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702393</v>
+        <v>111702506</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1563,21 +1555,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1586,14 +1578,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517070.2129045375</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R9" t="n">
-        <v>6574934.844418272</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1895,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702506</v>
+        <v>111702420</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1907,41 +1899,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517093.6249861007</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R12" t="n">
-        <v>6574959.965416327</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702393</v>
+        <v>111702486</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517070.2129045375</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R8" t="n">
-        <v>6574934.844418272</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702506</v>
+        <v>111702393</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,21 +1555,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1578,14 +1578,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517093.6249861007</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R9" t="n">
-        <v>6574959.965416327</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702486</v>
+        <v>111702506</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1694,14 +1694,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517080.8398438052</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R10" t="n">
-        <v>6574959.907818918</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702400</v>
+        <v>111702420</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,29 +1783,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1814,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517073.2951468225</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R11" t="n">
-        <v>6574931.795150192</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702420</v>
+        <v>111702400</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1899,37 +1907,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517086.1792710476</v>
+        <v>517073.2951468225</v>
       </c>
       <c r="R12" t="n">
-        <v>6574909.900584662</v>
+        <v>6574931.795150192</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702486</v>
+        <v>111702506</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1462,14 +1462,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517080.8398438052</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R8" t="n">
-        <v>6574959.907818918</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702393</v>
+        <v>111702400</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,21 +1555,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517070.2129045375</v>
+        <v>517073.2951468225</v>
       </c>
       <c r="R9" t="n">
-        <v>6574934.844418272</v>
+        <v>6574931.795150192</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702506</v>
+        <v>111702393</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1694,14 +1694,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517093.6249861007</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R10" t="n">
-        <v>6574959.965416327</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702420</v>
+        <v>111702486</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1783,37 +1783,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1822,10 +1814,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517086.1792710476</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R11" t="n">
-        <v>6574909.900584662</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702400</v>
+        <v>111702420</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1907,29 +1899,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517073.2951468225</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R12" t="n">
-        <v>6574931.795150192</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702506</v>
+        <v>111702486</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1462,14 +1462,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517093.6249861007</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R8" t="n">
-        <v>6574959.965416327</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702400</v>
+        <v>111702506</v>
       </c>
       <c r="B9" t="n">
         <v>90687</v>
@@ -1578,14 +1578,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517073.2951468225</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R9" t="n">
-        <v>6574931.795150192</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702393</v>
+        <v>111702420</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>90709</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,29 +1667,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>5448</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1698,10 +1706,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517070.2129045375</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R10" t="n">
-        <v>6574934.844418272</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702486</v>
+        <v>111702393</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,21 +1795,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1814,10 +1822,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517080.8398438052</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R11" t="n">
-        <v>6574959.907818918</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702420</v>
+        <v>111702400</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1899,37 +1907,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -1938,10 +1938,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517086.1792710476</v>
+        <v>517073.2951468225</v>
       </c>
       <c r="R12" t="n">
-        <v>6574909.900584662</v>
+        <v>6574931.795150192</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702486</v>
+        <v>111702393</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517080.8398438052</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R8" t="n">
-        <v>6574959.907818918</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702506</v>
+        <v>111702420</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1551,41 +1551,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517093.6249861007</v>
+        <v>517086.1792710476</v>
       </c>
       <c r="R9" t="n">
-        <v>6574959.965416327</v>
+        <v>6574909.900584662</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702420</v>
+        <v>111702486</v>
       </c>
       <c r="B10" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,37 +1675,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517086.1792710476</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R10" t="n">
-        <v>6574909.900584662</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702393</v>
+        <v>111702506</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,14 +1818,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517070.2129045375</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R11" t="n">
-        <v>6574934.844418272</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702393</v>
+        <v>111702486</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517070.2129045375</v>
+        <v>517080.8398438052</v>
       </c>
       <c r="R8" t="n">
-        <v>6574934.844418272</v>
+        <v>6574959.907818918</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702486</v>
+        <v>111702506</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1679,21 +1679,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1702,14 +1702,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517080.8398438052</v>
+        <v>517093.6249861007</v>
       </c>
       <c r="R10" t="n">
-        <v>6574959.907818918</v>
+        <v>6574959.965416327</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702506</v>
+        <v>111702393</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,14 +1818,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517093.6249861007</v>
+        <v>517070.2129045375</v>
       </c>
       <c r="R11" t="n">
-        <v>6574959.965416327</v>
+        <v>6574934.844418272</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111702486</v>
+        <v>111702393</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>517080.8398438052</v>
+        <v>517070</v>
       </c>
       <c r="R8" t="n">
-        <v>6574959.907818918</v>
+        <v>6574935</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,19 +1499,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1539,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702420</v>
+        <v>111702486</v>
       </c>
       <c r="B9" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1551,37 +1541,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1590,10 +1572,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517086.1792710476</v>
+        <v>517081</v>
       </c>
       <c r="R9" t="n">
-        <v>6574909.900584662</v>
+        <v>6574960</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1623,19 +1605,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1663,7 +1635,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702506</v>
+        <v>111702400</v>
       </c>
       <c r="B10" t="n">
         <v>90687</v>
@@ -1702,14 +1674,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kyrkogården, Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517093.6249861007</v>
+        <v>517073</v>
       </c>
       <c r="R10" t="n">
-        <v>6574959.965416327</v>
+        <v>6574932</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,19 +1711,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1779,10 +1741,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111702393</v>
+        <v>111702506</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,21 +1757,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,14 +1780,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Kyrkogården, Nrk</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>517070.2129045375</v>
+        <v>517094</v>
       </c>
       <c r="R11" t="n">
-        <v>6574934.844418272</v>
+        <v>6574960</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1855,19 +1817,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1895,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702400</v>
+        <v>111702420</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1907,29 +1859,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -1938,10 +1898,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517073.2951468225</v>
+        <v>517086</v>
       </c>
       <c r="R12" t="n">
-        <v>6574931.795150192</v>
+        <v>6574910</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1971,19 +1931,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 24762-2021.xlsx
+++ b/artfynd/A 24762-2021.xlsx
@@ -1529,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111702486</v>
+        <v>111702420</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>90709</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,29 +1541,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1572,10 +1580,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>517081</v>
+        <v>517086</v>
       </c>
       <c r="R9" t="n">
-        <v>6574960</v>
+        <v>6574910</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1635,10 +1643,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111702400</v>
+        <v>111702486</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,21 +1659,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1678,10 +1686,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>517073</v>
+        <v>517081</v>
       </c>
       <c r="R10" t="n">
-        <v>6574932</v>
+        <v>6574960</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1847,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111702420</v>
+        <v>111702400</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,37 +1867,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>517086</v>
+        <v>517073</v>
       </c>
       <c r="R12" t="n">
-        <v>6574910</v>
+        <v>6574932</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
